--- a/xls/lotteryConfig.xlsx
+++ b/xls/lotteryConfig.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@抽奖" sheetId="1" r:id="rId1"/>
     <sheet name="@基本配置" sheetId="4" r:id="rId2"/>
     <sheet name="代对表=" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>抽奖:lottery</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,14 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本配置:baseConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>firstCall[][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,7 +118,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,</t>
+    <t>101102,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101102,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101102,101101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -254,12 +251,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -301,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,7 +559,7 @@
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -600,19 +600,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -631,8 +631,8 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -654,8 +654,8 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -674,11 +674,11 @@
       <c r="E5">
         <v>900</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +761,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>

--- a/xls/lotteryConfig.xlsx
+++ b/xls/lotteryConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@抽奖" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>抽奖:lottery</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,11 +122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101102,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101102,101101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101102,102023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101102,102024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,74 +183,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,14 +195,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -301,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,7 +484,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,7 +568,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -655,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -675,7 +611,7 @@
         <v>900</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>

--- a/xls/lotteryConfig.xlsx
+++ b/xls/lotteryConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>抽奖:lottery</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,19 +118,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101102,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101102,101101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101102,102023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101102,102024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101102,102024,103504,103505,103506,103507,103508,103509,103001,103002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101102,102024,103504,103505</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,8 +491,8 @@
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="26.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="70.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="89.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -568,7 +564,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -611,10 +607,10 @@
         <v>900</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
